--- a/data/VRPTW_Sample_Data_25_Customers.xlsx
+++ b/data/VRPTW_Sample_Data_25_Customers.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Python\DoAnVRPTW\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62733A29-CF3A-481E-830B-6D1CE84F99AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Khách hàng" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Tên địa điểm</t>
   </si>
@@ -209,42 +215,6 @@
   </si>
   <si>
     <t>18:15</t>
-  </si>
-  <si>
-    <t>Kho hàng chính</t>
-  </si>
-  <si>
-    <t>Đơn hàng thường 2</t>
-  </si>
-  <si>
-    <t>Giao gấp 3</t>
-  </si>
-  <si>
-    <t>Giao gấp 6</t>
-  </si>
-  <si>
-    <t>Giao gấp 7</t>
-  </si>
-  <si>
-    <t>Giao gấp 9</t>
-  </si>
-  <si>
-    <t>Đơn hàng thường 14</t>
-  </si>
-  <si>
-    <t>Giao gấp 17</t>
-  </si>
-  <si>
-    <t>Giao gấp 22</t>
-  </si>
-  <si>
-    <t>Giao gấp 23</t>
-  </si>
-  <si>
-    <t>Giao gấp 24</t>
-  </si>
-  <si>
-    <t>Đơn hàng thường 25</t>
   </si>
   <si>
     <t>Kho</t>
@@ -256,8 +226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,13 +290,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +342,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -398,6 +376,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -432,9 +411,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,14 +587,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,12 +625,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
-        <v>21.028511</v>
+        <v>21.028511000000002</v>
       </c>
       <c r="C2">
         <v>105.854167</v>
@@ -665,19 +647,16 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>65</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
-        <v>21.025096</v>
+        <v>21.025096000000001</v>
       </c>
       <c r="C3">
         <v>105.865713</v>
@@ -695,15 +674,15 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>21.03898</v>
+        <v>21.038979999999999</v>
       </c>
       <c r="C4">
         <v>105.857691</v>
@@ -720,19 +699,16 @@
       <c r="G4">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
       <c r="I4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>21.022089</v>
+        <v>21.022089000000001</v>
       </c>
       <c r="C5">
         <v>105.85169</v>
@@ -749,22 +725,19 @@
       <c r="G5">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
       <c r="I5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>21.030703</v>
+        <v>21.030702999999999</v>
       </c>
       <c r="C6">
-        <v>105.837302</v>
+        <v>105.83730199999999</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -779,15 +752,15 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
-        <v>21.032331</v>
+        <v>21.032330999999999</v>
       </c>
       <c r="C7">
         <v>105.841229</v>
@@ -805,15 +778,15 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>21.022585</v>
+        <v>21.022584999999999</v>
       </c>
       <c r="C8">
         <v>105.876949</v>
@@ -830,19 +803,16 @@
       <c r="G8">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
       <c r="I8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
-        <v>21.032171</v>
+        <v>21.032171000000002</v>
       </c>
       <c r="C9">
         <v>105.863804</v>
@@ -859,14 +829,11 @@
       <c r="G9">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
       <c r="I9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -874,7 +841,7 @@
         <v>21.041753</v>
       </c>
       <c r="C10">
-        <v>105.853626</v>
+        <v>105.85362600000001</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -889,15 +856,15 @@
         <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
-        <v>21.020124</v>
+        <v>21.020123999999999</v>
       </c>
       <c r="C11">
         <v>105.872833</v>
@@ -914,14 +881,11 @@
       <c r="G11">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
       <c r="I11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -944,15 +908,15 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>21.022473</v>
+        <v>21.022473000000002</v>
       </c>
       <c r="C13">
         <v>105.854045</v>
@@ -970,10 +934,10 @@
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -981,7 +945,7 @@
         <v>21.047891</v>
       </c>
       <c r="C14">
-        <v>105.832754</v>
+        <v>105.83275399999999</v>
       </c>
       <c r="D14">
         <v>17</v>
@@ -996,15 +960,15 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15">
-        <v>21.034193</v>
+        <v>21.034192999999998</v>
       </c>
       <c r="C15">
         <v>105.86134</v>
@@ -1022,15 +986,15 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16">
-        <v>21.015748</v>
+        <v>21.015747999999999</v>
       </c>
       <c r="C16">
         <v>105.864403</v>
@@ -1047,19 +1011,16 @@
       <c r="G16">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
-        <v>71</v>
-      </c>
       <c r="I16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17">
-        <v>21.023289</v>
+        <v>21.023288999999998</v>
       </c>
       <c r="C17">
         <v>105.860052</v>
@@ -1077,15 +1038,15 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18">
-        <v>21.053059</v>
+        <v>21.053059000000001</v>
       </c>
       <c r="C18">
         <v>105.849355</v>
@@ -1103,15 +1064,15 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19">
-        <v>21.046047</v>
+        <v>21.046047000000002</v>
       </c>
       <c r="C19">
         <v>105.848607</v>
@@ -1128,19 +1089,16 @@
       <c r="G19">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
       <c r="I19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20">
-        <v>21.009158</v>
+        <v>21.009157999999999</v>
       </c>
       <c r="C20">
         <v>105.878471</v>
@@ -1158,10 +1116,10 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1184,15 +1142,15 @@
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22">
-        <v>21.014438</v>
+        <v>21.014437999999998</v>
       </c>
       <c r="C22">
         <v>105.849352</v>
@@ -1210,15 +1168,15 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23">
-        <v>21.038887</v>
+        <v>21.038886999999999</v>
       </c>
       <c r="C23">
         <v>105.840942</v>
@@ -1236,10 +1194,10 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1261,22 +1219,19 @@
       <c r="G24">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
-        <v>73</v>
-      </c>
       <c r="I24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
-        <v>21.025759</v>
+        <v>21.025759000000001</v>
       </c>
       <c r="C25">
-        <v>105.850372</v>
+        <v>105.85037199999999</v>
       </c>
       <c r="D25">
         <v>22</v>
@@ -1290,14 +1245,11 @@
       <c r="G25">
         <v>23</v>
       </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
       <c r="I25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1319,19 +1271,16 @@
       <c r="G26">
         <v>19</v>
       </c>
-      <c r="H26" t="s">
-        <v>75</v>
-      </c>
       <c r="I26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27">
-        <v>21.004777</v>
+        <v>21.004777000000001</v>
       </c>
       <c r="C27">
         <v>105.833643</v>
@@ -1348,11 +1297,8 @@
       <c r="G27">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
-        <v>76</v>
-      </c>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
